--- a/Attestati Corsi di Formazione/report_gen_data/db/test_stampa_pdf.xlsx
+++ b/Attestati Corsi di Formazione/report_gen_data/db/test_stampa_pdf.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">nominativo</t>
   </si>
@@ -55,157 +55,10 @@
     <t xml:space="preserve">record_id</t>
   </si>
   <si>
-    <t xml:space="preserve">CEROFOLINI SONIA</t>
+    <t xml:space="preserve">Freeday Test</t>
   </si>
   <si>
-    <t xml:space="preserve">CRFSNO68D60F384X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monsummano Terme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cerofolinisonia@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">authentica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FORMAZIONE 231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berrettini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44d4486c-8bac-468b-8b60-f21b928474ed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAZZANTI GIUSEPPINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZZGPP69B56F839A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liciusmazzanti@yahoo.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a460e601-31b8-40fa-a886-0ee8beb441d7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARSILI VALENTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRSVNT87M69F023L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Massa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valentinamarsili95@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19ab1a80-79df-4d15-8452-b44d4fe56002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZOCCO CARLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZCCCRL83L44F023B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carla.zocco83ms@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40cc6d62-bfc4-4dc2-b83c-d618172f132a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GILI PIERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLIPRI64R26D653U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foligno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">piero.gili@gruppoauthentica.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85877345-de67-4d7b-9504-d2aa95a0dbe3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VINELLA CATERINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VNLCRN90C60G273E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palermo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caterinavinella@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a132624b-0454-496b-8014-3b0eecf68416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BURATO PAOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRTPLA63M07H783M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">San Bonifacio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paolo.burato@gruppoauthentica.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4060cb6d-6593-4f4b-afab-0d92c4a75a36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARAIA ALMAZ UKBAY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAALZK67H62Z368E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">almazukbay.araia@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab72d7bc-c273-4af1-997b-974b79013a08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIACENTI MASSIMO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCNMSM61T30L117U</t>
+    <t xml:space="preserve">BNVFRC85H42L219F</t>
   </si>
   <si>
     <t xml:space="preserve">Terni</t>
@@ -214,841 +67,22 @@
     <t xml:space="preserve">TR</t>
   </si>
   <si>
-    <t xml:space="preserve">massimo.piacenti@gruppoauthentica.it</t>
+    <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">1d010dc0-733d-4e0a-b291-8d64aa14c06b</t>
+    <t xml:space="preserve">freedayhasstest@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">KODRA ETLEVA</t>
+    <t xml:space="preserve">authentica</t>
   </si>
   <si>
-    <t xml:space="preserve">KDRTLV74T57Z100K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evakodra@icloud.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">italiachef</t>
-  </si>
-  <si>
-    <t xml:space="preserve">170c3d1e-4cb2-41c2-a177-fb1024138048</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA BIUNDA GRAZIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LBNGZN93P69E017O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giarre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grazianalabiunda93@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41549416-c9e1-4f9b-990d-854d293ed20a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THOMAS PAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THMPTA94A41Z335Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">badfriends</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d5e5188c-9a55-4f77-863f-85ac0e1a4b92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TREMENDI FIORELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRMFLL62M52L210C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torbole Casaglia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiorellatremendi@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27d4cee5-5b07-4420-8b44-db9331309433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHILLA BRIGITTE GABRIELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHLBGT69B47Z129O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chillabrigitte00@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c79a58bc-197f-4781-92e8-0d433047aa06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VOLOSHYNA NATALIYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VLSNLY71C66Z138J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ucraina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voloshynanataliya43@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6ddf298a-dcc6-4173-9be8-74a31212980c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAHKOUNE WAFA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DHKWFA80T53Z330C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gennaio8@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5daf8f67-0dfa-4a9a-8a27-2a1eee7e6aae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAPPALARDO SAMANTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPPSNT81P43E716T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mausamba@hotmail.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39dbe51c-05cf-421b-a627-6df76359e8e4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHKEMBI ANILDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHKNLD73P63Z100Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anilda.shkembi73@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a7c7a578-c72f-460e-b567-9cf852499c51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CICCHETTI ALESSANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCCLSN74D56H501M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cicchettia4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7598da2a-fc2d-48fd-89f2-bad78017b82c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESPOSITO ORIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPSRNO57R56H501C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orianaesposito40@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdc10c2d-d2cc-4d48-9fa2-6286686ce0dc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAPONE IVAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPNVNI72B29D643E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foggia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ivancapone1972@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e03b7371-9349-4d89-a350-e38c07270074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MIGLIORE FLORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGLFLR84A59D960F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">floramigliore3@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2caaff7b-1207-4171-9905-57fc32dc794e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PETRUZZELLI ANGELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTRNGL76M67A285D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anglod76@libero.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORSO SICUREZZA SUL LAVORO 2025</t>
+    <t xml:space="preserve">CORSO IN MATERIA DI PREVENZIONE DELLA CORRUZIONE E DELL'ILLEGALITA</t>
   </si>
   <si>
     <t xml:space="preserve">petrignani</t>
   </si>
   <si>
-    <t xml:space="preserve">c30346d8-4b3a-4612-9d27-c9b1c1184077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IUDICONI DANILO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DCNDNL76A26H501U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iudiconidanilo@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e8c10b78-8f8b-411a-954f-870d4aa37927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MECHELLI ANNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCHNNA64A54D773I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Frascati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annamechelli64@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddf08dbe-298e-4161-ac14-46d557e523f2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MENCHI TIZIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNCTZN68L46D612F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firenze</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birion@libero.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3025b244-5310-4c62-829f-8ad2b28270a7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTILLI SARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNTSRA80B63H501G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saracontilli@libero.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1fce72bd-05c2-4b6f-86d6-f86a4c53cd14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEREZ EVA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRZVEA73C51Z216T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evaperez99@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7d0b1e57-b064-421e-8859-b892d6c4ae43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIKITENKO YULIYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKTYLY74D58Z138N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bogomazyulya1974@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117b172-f18c-4cba-a002-93a56550e21c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BARAGLI ILARIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BRGLRI76B51D403C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baragliilaria76@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a0669e6b-c0fa-4db9-a067-74f056a010c6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPIZZICHINO TIZIANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPZTZN70E71H501C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">titta70@live.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7325fad4-006c-48d4-97f5-67b80c9e0a7a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANEA FLORENTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MNAFRN69E50Z129P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">florentinamanea0069@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4ab010fb-cba5-471f-ba73-af9e533b708e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAZZOLA SILVANA PIERINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MZZSVN64H68A764S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belmonte Mezzagno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mazzola28giugno@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58505579-d6af-41ca-8b57-6d8ac19bc708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAKOVA SOFCHE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKVSCH61L44Z148V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Macedonia del Nord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sofcenakova61@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b351a255-0bb4-40ae-9630-63dcd7d5f00b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI MAIO VALERIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DMIVLR73C43G273L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valeriadimaio.vdm@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fc266a4e-b2d0-418c-b929-b3407f0a24b7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DODAJ LEONORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDJLNR74S44Z100V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leonora.dodaj74@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b2d9f94f-8f26-43ac-b827-68db5dafeb36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERNANDEZ DE MORENO CINDY MARIELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HRNCDY83D42Z506W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cindyhernandz@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3fd83bfc-2588-446d-a4ea-6a2b2d3fe3ce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GASBARRO SILVANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSBSVN81A42F205X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Milano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silvanagasbarro@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dc0aa6e0-c726-4e92-92ed-3581a2ddd24a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MALLIMACI FRANCESCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MLLFNC77D58F112W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melito di Porto Salvo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">francescamallimaci@yahoo.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d89e95d9-fe09-4f5d-8419-01f6bea9f107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIKOLOVA ZUNKA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NKLZNK64T59Z148O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nikolovazunka@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1cd9f3fa-b8a0-4b67-b39a-37638839ac7a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAROSA CONCETTINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRSCCT69M63D976E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tinalarosa2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96cb83b4-acba-4e14-bfcb-6a1dadd7c4db</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALFANO RACHELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LFNRHL67B58G813X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pompei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alfanolina00@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e23941b4-bfdc-4a54-8ebf-5845234326c0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHEKAN LIUDMYLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHKLMY86L44Z138A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liudmilasaimon@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3d22705-abf8-4502-b0f9-cbac0bb9c3ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KACELI FLORINA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCLFRN82B46Z100W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">florianakaceli@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7a0ddcdd-f18f-43a4-a711-9215524ae6de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PILONE SALVATORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLNSVT69E13B519C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Campobasso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salvatoreypatrizia@alice.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">353f3ae0-334b-4283-b2e5-3626523ecce2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DALLOSPEDALE CLAUDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DLLCLD60A26G535V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piacenza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">claudio.dallospe@libero.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b4ab1e3d-0745-4184-872e-dec86a99f0e6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURKU ANILA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRKNLA76T63Z100W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gabrinila08@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e6ac39de-66fa-4a57-b9e7-52422cabc003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PELLARINI PAOLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLLPLA72B28L483I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paolo.pellarini72@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">663eb0fd-4f72-498e-8881-2e94fcb20e70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRISTALLI LORENZO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRSLNZ75E11G535B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lore.cristralli@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">91c20160-6fbf-4e3f-b9c4-16119ee44dbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEDONI ROBERTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDNRRT83M23L182N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tivoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robertopedoni181@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aa0468d6-b588-4ff9-8890-3a9cb076a694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRIMALDI CARMELA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRMCML78B47H501R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carmela.g0905@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">374179d4-3086-421c-a322-8abf6cbaf5dc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DI SIMONE MARCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSMMRC06R12D286N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lo marcodisimone12@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eaf9b98f-91ee-484f-ba87-3cf8c401bf88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QUINONEZ MARQUINEZ MURIEL KATHERIN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QNNMLK81D43Z605A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quinonezmuriel@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ed6aea1f-eca3-43a1-811c-ac58349e2399</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEGA VILLAFUERTE ELSA PETRONILA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VGVLPT74B62Z611C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ginelsa74@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3734cacb-aa3b-4c87-8fb9-bc1fe964c093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOSA ANGELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSONGL03T01F205F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abosa470@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fbe34d68-8e06-444a-a23c-87dd9f6d340d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIMPOERU IULIANA VICTORIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMPLVC89T63Z129Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iulianacimpoeru89@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8df044d7-1b95-415a-84cf-ad11a10bec10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LANZARA LOREDANA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNZLDN66T55H501O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loryleoale@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89df92d2-8d15-46be-8732-c4f1a30b7a3b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PULLA MARIA GIOVANNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLLMGV68R44Z114P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regno Unito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mariagiovannapulla@libero.it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nozioni di sicurezza alimentare e applicazione HACCP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galimberti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">105efd1b-396b-4a3b-98a0-ebaac477ab2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAOUAR SALIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LRASLM71A11Z301E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lasanosra@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6f3e7a6e-a435-4df9-af53-786999b369d1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SABELLICO SANDRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBLSDR68P65A123J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alatri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sandrasabellico@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27da05cc-5236-4298-8ac6-edf426c9ff95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CANZI LAURA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNZLRA76P45B729O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carate Brianza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plafcasa@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7dfdabd8-8f88-45ff-986e-24a563b413a4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRAGOMANU SILVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DRGSLV68R42Z129O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">silviadragomanu@yahoo.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">be6b9327-adc0-49f0-b048-681b18bd3c59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORELLATO MARISTELLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MRLMST68M63E617R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lissone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mary.morellato@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">718efc57-68ac-4dd7-947a-c2c4210af68d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISCONTI CINZIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSCCNZ76S60G273H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cinziabisconti76@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9cb2f3e0-90d5-4b16-90a7-eb38367eb332</t>
+    <t xml:space="preserve">3e354046-2d43-4043-ae62-29ecd371a479</t>
   </si>
 </sst>
 </file>
@@ -1137,19 +171,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1345,10 +379,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1412,2134 +446,93 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="n">
-        <v>45744.5772685185</v>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>45819.3931018519</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>45744.6276041667</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L2" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="n">
-        <v>45745.4416203704</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>45745.7936458333</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3" t="n">
-        <v>45745.8018865741</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>45746.9676851852</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3" t="n">
-        <v>45747.5090856482</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>45754.9244212963</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="3" t="n">
-        <v>45756.5289814815</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>45761.5374768519</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="3" t="n">
-        <v>45762.5625115741</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>45763.5324652778</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="3" t="n">
-        <v>45764.7148726852</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>45771.3949652778</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="3" t="n">
-        <v>45771.5555902778</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>45771.8433680556</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="3" t="n">
-        <v>45772.3028356481</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>45775.4368402778</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="3" t="n">
-        <v>45776.7123726852</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="3" t="n">
-        <v>45777.6727314815</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="3" t="n">
-        <v>45785.4062152778</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="3" t="n">
-        <v>45794.7449074074</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" s="3" t="n">
-        <v>45714.8553819444</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" s="3" t="n">
-        <v>45715.2819097222</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>45719.7967939815</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J27" s="3" t="n">
-        <v>45720.6596643519</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J28" s="3" t="n">
-        <v>45721.847974537</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J29" s="3" t="n">
-        <v>45722.7250578704</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J30" s="3" t="n">
-        <v>45722.7309143519</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" s="3" t="n">
-        <v>45723.364537037</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J32" s="3" t="n">
-        <v>45723.6081944444</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J33" s="3" t="n">
-        <v>45723.7380208333</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J34" s="3" t="n">
-        <v>45724.7185763889</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J35" s="3" t="n">
-        <v>45725.4919212963</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J36" s="3" t="n">
-        <v>45725.6759027778</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J37" s="3" t="n">
-        <v>45725.8285185185</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J38" s="3" t="n">
-        <v>45726.3748726852</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J39" s="3" t="n">
-        <v>45726.4125347222</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J40" s="3" t="n">
-        <v>45726.4843518519</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J41" s="3" t="n">
-        <v>45726.5882175926</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J42" s="3" t="n">
-        <v>45726.9327893519</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J43" s="3" t="n">
-        <v>45727.8463425926</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J44" s="3" t="n">
-        <v>45727.8661111111</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J45" s="3" t="n">
-        <v>45727.8824768519</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J46" s="3" t="n">
-        <v>45728.5885763889</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J47" s="3" t="n">
-        <v>45728.7513194445</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J48" s="3" t="n">
-        <v>45729.3323032407</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J49" s="3" t="n">
-        <v>45729.602962963</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J50" s="3" t="n">
-        <v>45729.6361574074</v>
-      </c>
-      <c r="K50" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J51" s="3" t="n">
-        <v>45729.7180787037</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J52" s="3" t="n">
-        <v>45729.9453819445</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J53" s="3" t="n">
-        <v>45730.5884490741</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J54" s="3" t="n">
-        <v>45730.7411689815</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J55" s="3" t="n">
-        <v>45730.9958680556</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J56" s="3" t="n">
-        <v>45733.868275463</v>
-      </c>
-      <c r="K56" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J57" s="3" t="n">
-        <v>45738.3698148148</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J58" s="3" t="n">
-        <v>45740.5678587963</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J59" s="3" t="n">
-        <v>45779.4215046296</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J60" s="3" t="n">
-        <v>45779.6527777778</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J61" s="3" t="n">
-        <v>45781.6644212963</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J62" s="3" t="n">
-        <v>45782.0475925926</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J63" s="3" t="n">
-        <v>45782.8859490741</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J64" s="3" t="n">
-        <v>45787.9048148148</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="J65" s="3" t="n">
-        <v>45791.7182986111</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
+    <row r="1044995" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1044996" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1044997" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1044998" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1044999" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045000" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045001" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045002" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045003" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045004" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045005" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045006" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045007" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045008" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045009" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045010" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045011" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045012" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045013" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045014" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045015" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045016" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045017" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045018" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045019" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045020" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045021" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045022" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045023" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045024" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045025" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045026" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045027" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045028" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045029" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045030" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045031" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045032" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045033" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045034" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045035" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045036" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045037" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045038" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045039" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045040" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045041" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045042" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045043" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045044" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045045" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045046" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045047" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045048" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045049" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045050" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045051" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045052" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045053" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045054" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045055" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045056" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045057" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1045058" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1045059" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1045060" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1045061" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5210,70 +2203,70 @@
     <row r="1046726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1046792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046729" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046730" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046731" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046732" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046733" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046734" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046735" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046736" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046737" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046738" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046739" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046740" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046741" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046742" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046743" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046744" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046745" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046746" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046747" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046748" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046749" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046750" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046751" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046752" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046753" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046754" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046755" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046756" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046757" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046758" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046759" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046760" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046761" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046762" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046763" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046764" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046765" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046766" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046767" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046768" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046769" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046770" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046771" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046772" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046773" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046774" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046775" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046776" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046777" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046778" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046779" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046780" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046781" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046782" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046783" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046784" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046785" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046786" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046787" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046788" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046789" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046790" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046791" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1046792" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046793" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046794" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1046795" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
